--- a/ImportantFiles/Scaler-Rev.xlsx
+++ b/ImportantFiles/Scaler-Rev.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sucha\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ScalerRevise\ImportantFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE8B656-79D0-474D-94D6-32AE43867196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C807D1-4C72-4E9B-A4AE-4979D7BB5F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D26BC1AD-F67D-4F89-8FCD-E826773FF4FA}"/>
+    <workbookView xWindow="-19248" yWindow="2928" windowWidth="14400" windowHeight="7272" xr2:uid="{D26BC1AD-F67D-4F89-8FCD-E826773FF4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Week#</t>
   </si>
@@ -47,14 +47,23 @@
     <t>48 days plan</t>
   </si>
   <si>
-    <t>Day of the week</t>
+    <t>INTERMEDIATE : INTRODUCTION TO PROBLEM SOLVING</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>TC-1</t>
+  </si>
+  <si>
+    <t>TC-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +79,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF515151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -79,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -167,14 +182,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -189,6 +243,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,479 +582,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB53E010-9B8A-4D22-AD35-09052993785F}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" customWidth="1"/>
-    <col min="4" max="4" width="33.81640625" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="B4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>7</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>6</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>7</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>7</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>8</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>7</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>8</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>8</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>8</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>9</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>8</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="19"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
-        <v>9</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="21"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="C1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
